--- a/Edo-common-main/Assets/Database/StaffList/StaffList.xlsx
+++ b/Edo-common-main/Assets/Database/StaffList/StaffList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Projects\Edo-common\Assets\Database\StaffList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koumori0\Edo-common-main\Edo-common-main\Assets\Database\StaffList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFD3ABA-6D47-459D-8CF8-821B77489B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D288B935-7F9D-456F-9DED-727207A7F1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>Position</t>
     <phoneticPr fontId="1"/>
@@ -421,6 +421,22 @@
     <rPh sb="17" eb="19">
       <t>ダイガク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームデザイナ、シナリオ、ビジュアル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かとう　ゆずき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトマネージャー、プログラマー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かじわら　</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -520,8 +536,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D87DBA9-2228-44F8-99A3-3D7FB3F9D8B2}" name="テーブル1" displayName="テーブル1" ref="A1:C36" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:C36" xr:uid="{9D87DBA9-2228-44F8-99A3-3D7FB3F9D8B2}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D87DBA9-2228-44F8-99A3-3D7FB3F9D8B2}" name="テーブル1" displayName="テーブル1" ref="A1:C38" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:C38" xr:uid="{9D87DBA9-2228-44F8-99A3-3D7FB3F9D8B2}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -798,23 +814,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="164.125" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="38.875" customWidth="1"/>
+    <col min="2" max="2" width="164.09765625" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" customWidth="1"/>
+    <col min="5" max="5" width="38.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -831,18 +847,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -850,31 +867,34 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -882,187 +902,184 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>53</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="b">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="b">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -1073,15 +1090,15 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -1092,21 +1109,18 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" t="b">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
@@ -1114,10 +1128,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
@@ -1125,10 +1139,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
@@ -1136,22 +1150,45 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>20</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C32 C33:C1048576" xr:uid="{D9B088AA-E18D-4C60-8BD5-F7AA05136C6C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{D9B088AA-E18D-4C60-8BD5-F7AA05136C6C}">
       <formula1>"false,true"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>